--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Larty\gitrepo\ClassicCarChain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Larty\gitrepo\ClassicCarChain\Dokumentaatio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="30">
   <si>
     <t>Viikko</t>
   </si>
@@ -105,7 +105,10 @@
     <t>Jos haluat pysyä aikataulussa, joudut työskentelmään näin monta tuntia viikossa:</t>
   </si>
   <si>
-    <t>Ethereum/geth -harjoituksia. Testiverkon pystytys. Versionhallinnan käyttöönotto.</t>
+    <t>Solidity -harjoituksia.</t>
+  </si>
+  <si>
+    <t>Solidity -harjoituksia. Testiverkon pystytys. Versionhallinnan käyttöönotto.</t>
   </si>
 </sst>
 </file>
@@ -750,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +832,7 @@
       </c>
       <c r="J7" s="46">
         <f>SUM(D:D)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M7" s="18"/>
     </row>
@@ -895,7 +898,7 @@
       </c>
       <c r="J11" s="49">
         <f ca="1">((J5-J7)/_xlfn.DAYS(J9, NOW())) *7</f>
-        <v>8.5217391304347831</v>
+        <v>8.5477386934673376</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -1287,7 +1290,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F37" s="20"/>
       <c r="I37" s="7"/>
@@ -1367,8 +1370,12 @@
       <c r="C43" s="28">
         <v>42654</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="20"/>
+      <c r="D43" s="17">
+        <v>5</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="F43" s="20"/>
       <c r="I43" s="7"/>
     </row>
@@ -1393,8 +1400,12 @@
       <c r="C45" s="28">
         <v>42656</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="20"/>
+      <c r="D45" s="17">
+        <v>4</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="F45" s="20"/>
       <c r="I45" s="7"/>
     </row>

--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="31">
   <si>
     <t>Viikko</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Solidity -harjoituksia. Testiverkon pystytys. Versionhallinnan käyttöönotto.</t>
+  </si>
+  <si>
+    <t>Meteor-harjoituksia</t>
   </si>
 </sst>
 </file>
@@ -264,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -402,6 +405,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -753,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,8 +794,9 @@
     <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="36" style="6" customWidth="1"/>
     <col min="6" max="6" width="37" style="6" customWidth="1"/>
-    <col min="9" max="9" width="37.625" customWidth="1"/>
-    <col min="10" max="10" width="19.875" customWidth="1"/>
+    <col min="8" max="8" width="32.875" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -793,112 +824,121 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
-      <c r="I5" s="47" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="46">
+      <c r="I5" s="46">
         <f>27*10</f>
         <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>36</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="54">
         <v>42618</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
-      <c r="I7" s="30" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="46">
+      <c r="I7" s="46">
         <f>SUM(D:D)</f>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="58">
         <v>42619</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="58">
         <v>42620</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
-      <c r="I9" s="12" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="28">
+      <c r="I9" s="28">
         <v>42855</v>
       </c>
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="58">
         <v>42621</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="58">
         <v>42622</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
-      <c r="I11" s="6" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="49">
-        <f ca="1">((J5-J7)/_xlfn.DAYS(J9, NOW())) *7</f>
-        <v>8.5477386934673376</v>
+      <c r="I11" s="49">
+        <f ca="1">((I5-I7)/_xlfn.DAYS(I9, NOW())) *7</f>
+        <v>8.8817204301075261</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -1581,8 +1621,12 @@
       <c r="C58" s="28">
         <v>42669</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="20"/>
+      <c r="D58" s="17">
+        <v>7</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="F58" s="20"/>
       <c r="I58" s="7"/>
     </row>

--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="32">
   <si>
     <t>Viikko</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Meteor-harjoituksia</t>
+  </si>
+  <si>
+    <t>Opinnäytetyö perustettu, Meteor-harjoituksia</t>
   </si>
 </sst>
 </file>
@@ -783,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +870,7 @@
       </c>
       <c r="I7" s="46">
         <f>SUM(D:D)</f>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M7" s="18"/>
     </row>
@@ -938,7 +941,7 @@
       </c>
       <c r="I11" s="49">
         <f ca="1">((I5-I7)/_xlfn.DAYS(I9, NOW())) *7</f>
-        <v>8.8817204301075261</v>
+        <v>9.0564971751412422</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -1738,7 +1741,7 @@
       <c r="F66" s="20"/>
       <c r="I66" s="7"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="4" t="s">
         <v>10</v>
@@ -1746,8 +1749,12 @@
       <c r="C67" s="28">
         <v>42678</v>
       </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="20"/>
+      <c r="D67" s="17">
+        <v>7</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="F67" s="5"/>
       <c r="I67" s="7"/>
     </row>

--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="32">
   <si>
     <t>Viikko</t>
   </si>
@@ -786,20 +786,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="36" style="6" customWidth="1"/>
     <col min="6" max="6" width="37" style="6" customWidth="1"/>
-    <col min="8" max="8" width="32.875" customWidth="1"/>
-    <col min="9" max="9" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -825,7 +825,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="50"/>
       <c r="C5" s="51"/>
@@ -870,7 +870,7 @@
       </c>
       <c r="I7" s="46">
         <f>SUM(D:D)</f>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M7" s="18"/>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="I11" s="49">
         <f ca="1">((I5-I7)/_xlfn.DAYS(I9, NOW())) *7</f>
-        <v>9.0564971751412422</v>
+        <v>8.9090909090909083</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -1321,7 +1321,7 @@
       <c r="F36" s="20"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="4" t="s">
         <v>8</v>
@@ -1545,7 +1545,7 @@
       <c r="F52" s="20"/>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="4" t="s">
         <v>10</v>
@@ -1766,8 +1766,12 @@
       <c r="C68" s="28">
         <v>42679</v>
       </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="20"/>
+      <c r="D68" s="17">
+        <v>5</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="F68" s="20"/>
       <c r="I68" s="7"/>
     </row>
@@ -2276,7 +2280,7 @@
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
     </row>
-    <row r="109" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="4" t="s">
         <v>10</v>
@@ -3936,7 +3940,7 @@
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
     </row>
-    <row r="242" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="4" t="s">
         <v>10</v>

--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="32">
   <si>
     <t>Viikko</t>
   </si>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,7 +870,7 @@
       </c>
       <c r="I7" s="46">
         <f>SUM(D:D)</f>
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M7" s="18"/>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="I11" s="49">
         <f ca="1">((I5-I7)/_xlfn.DAYS(I9, NOW())) *7</f>
-        <v>8.9090909090909083</v>
+        <v>8.68</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -1783,8 +1783,12 @@
       <c r="C69" s="29">
         <v>42680</v>
       </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="20"/>
+      <c r="D69" s="17">
+        <v>7</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="F69" s="24"/>
       <c r="I69" s="7"/>
     </row>

--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="33">
   <si>
     <t>Viikko</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Opinnäytetyö perustettu, Meteor-harjoituksia</t>
+  </si>
+  <si>
+    <t>Meteor-harjoituksia, johdannon kirjoittelua</t>
   </si>
 </sst>
 </file>
@@ -786,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M84" sqref="M84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,7 +873,7 @@
       </c>
       <c r="I7" s="46">
         <f>SUM(D:D)</f>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M7" s="18"/>
     </row>
@@ -941,7 +944,7 @@
       </c>
       <c r="I11" s="49">
         <f ca="1">((I5-I7)/_xlfn.DAYS(I9, NOW())) *7</f>
-        <v>8.68</v>
+        <v>8.497109826589595</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -1807,7 +1810,7 @@
       <c r="F70" s="23"/>
       <c r="I70" s="7"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="4" t="s">
         <v>7</v>
@@ -1815,8 +1818,12 @@
       <c r="C71" s="28">
         <v>42682</v>
       </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="20"/>
+      <c r="D71" s="17">
+        <v>7</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="F71" s="20"/>
       <c r="I71" s="7"/>
     </row>

--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="33">
   <si>
     <t>Viikko</t>
   </si>
@@ -790,7 +790,7 @@
   <dimension ref="A3:M264"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M84" sqref="M84"/>
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +873,7 @@
       </c>
       <c r="I7" s="46">
         <f>SUM(D:D)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M7" s="18"/>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="I11" s="49">
         <f ca="1">((I5-I7)/_xlfn.DAYS(I9, NOW())) *7</f>
-        <v>8.497109826589595</v>
+        <v>8.7083333333333339</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -1887,8 +1887,12 @@
       <c r="C76" s="29">
         <v>42687</v>
       </c>
-      <c r="D76" s="17"/>
-      <c r="E76" s="24"/>
+      <c r="D76" s="17">
+        <v>1</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="F76" s="24"/>
       <c r="I76" s="7"/>
     </row>

--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="34">
   <si>
     <t>Viikko</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Meteor-harjoituksia, johdannon kirjoittelua</t>
+  </si>
+  <si>
+    <t>Funktiokutsu sopimuksesta</t>
   </si>
 </sst>
 </file>
@@ -789,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +876,7 @@
       </c>
       <c r="I7" s="46">
         <f>SUM(D:D)</f>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M7" s="18"/>
     </row>
@@ -944,7 +947,7 @@
       </c>
       <c r="I11" s="49">
         <f ca="1">((I5-I7)/_xlfn.DAYS(I9, NOW())) *7</f>
-        <v>8.7083333333333339</v>
+        <v>9.0125000000000011</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -1997,8 +2000,12 @@
       <c r="C84" s="27">
         <v>42695</v>
       </c>
-      <c r="D84" s="35"/>
-      <c r="E84" s="23"/>
+      <c r="D84" s="35">
+        <v>3</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="F84" s="23"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">

--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="35">
   <si>
     <t>Viikko</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Funktiokutsu sopimuksesta</t>
+  </si>
+  <si>
+    <t>Junction Hackathon oli tänä viikonloppuna. Sain paljon uutta oppia lohkoketjuista ja Ethereum-älykkäistä sopimuksista</t>
   </si>
 </sst>
 </file>
@@ -792,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +879,7 @@
       </c>
       <c r="I7" s="46">
         <f>SUM(D:D)</f>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M7" s="18"/>
     </row>
@@ -947,7 +950,7 @@
       </c>
       <c r="I11" s="49">
         <f ca="1">((I5-I7)/_xlfn.DAYS(I9, NOW())) *7</f>
-        <v>9.0125000000000011</v>
+        <v>9.6551724137931032</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -2056,7 +2059,7 @@
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="4" t="s">
         <v>11</v>
@@ -2065,7 +2068,9 @@
         <v>42700</v>
       </c>
       <c r="D89" s="17"/>
-      <c r="E89" s="20"/>
+      <c r="E89" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="F89" s="20"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2150,7 +2155,9 @@
       <c r="C96" s="28">
         <v>42707</v>
       </c>
-      <c r="D96" s="17"/>
+      <c r="D96" s="17">
+        <v>6</v>
+      </c>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
     </row>

--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="36">
   <si>
     <t>Viikko</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Junction Hackathon oli tänä viikonloppuna. Sain paljon uutta oppia lohkoketjuista ja Ethereum-älykkäistä sopimuksista</t>
+  </si>
+  <si>
+    <t>Pystytin truffel-testiympäristön. Koodasin testejä ja testasin sopimusta.</t>
   </si>
 </sst>
 </file>
@@ -795,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +882,7 @@
       </c>
       <c r="I7" s="46">
         <f>SUM(D:D)</f>
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="M7" s="18"/>
     </row>
@@ -950,7 +953,7 @@
       </c>
       <c r="I11" s="49">
         <f ca="1">((I5-I7)/_xlfn.DAYS(I9, NOW())) *7</f>
-        <v>9.6551724137931032</v>
+        <v>9.1241379310344826</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -2187,7 +2190,7 @@
       <c r="E98" s="23"/>
       <c r="F98" s="23"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="4" t="s">
         <v>7</v>
@@ -2195,8 +2198,12 @@
       <c r="C99" s="28">
         <v>42710</v>
       </c>
-      <c r="D99" s="17"/>
-      <c r="E99" s="20"/>
+      <c r="D99" s="17">
+        <v>11</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="F99" s="20"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">

--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="37">
   <si>
     <t>Viikko</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Pystytin truffel-testiympäristön. Koodasin testejä ja testasin sopimusta.</t>
+  </si>
+  <si>
+    <t>Vähän heikko työteho eilisen uupumuksen takia. Tarkoitus oli kehittää sopimusta ja testejä</t>
   </si>
 </sst>
 </file>
@@ -798,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +885,7 @@
       </c>
       <c r="I7" s="46">
         <f>SUM(D:D)</f>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M7" s="18"/>
     </row>
@@ -953,7 +956,7 @@
       </c>
       <c r="I11" s="49">
         <f ca="1">((I5-I7)/_xlfn.DAYS(I9, NOW())) *7</f>
-        <v>9.1241379310344826</v>
+        <v>9.2158273381294968</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -2266,7 +2269,7 @@
       <c r="E104" s="24"/>
       <c r="F104" s="24"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="10">
         <v>50</v>
       </c>
@@ -2276,8 +2279,12 @@
       <c r="C105" s="27">
         <v>42716</v>
       </c>
-      <c r="D105" s="35"/>
-      <c r="E105" s="23"/>
+      <c r="D105" s="35">
+        <v>6</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="F105" s="23"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">

--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="I7" s="46">
         <f>SUM(D:D)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M7" s="18"/>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="I11" s="49">
         <f ca="1">((I5-I7)/_xlfn.DAYS(I9, NOW())) *7</f>
-        <v>9.2158273381294968</v>
+        <v>9.526315789473685</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -2359,7 +2359,9 @@
       <c r="C111" s="29">
         <v>42722</v>
       </c>
-      <c r="D111" s="17"/>
+      <c r="D111" s="17">
+        <v>2</v>
+      </c>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
     </row>

--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="42">
   <si>
     <t>Viikko</t>
   </si>
@@ -130,6 +130,21 @@
   </si>
   <si>
     <t>Vähän heikko työteho eilisen uupumuksen takia. Tarkoitus oli kehittää sopimusta ja testejä</t>
+  </si>
+  <si>
+    <t>Testien ja sopimuksen tekoa. Testit lensi mäkeen.</t>
+  </si>
+  <si>
+    <t>Sopimus</t>
+  </si>
+  <si>
+    <t>Perustin uuden projektin</t>
+  </si>
+  <si>
+    <t>Softaongelmia</t>
+  </si>
+  <si>
+    <t>Muuttujien kutsu sopimuksesta</t>
   </si>
 </sst>
 </file>
@@ -801,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +900,7 @@
       </c>
       <c r="I7" s="46">
         <f>SUM(D:D)</f>
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="M7" s="18"/>
     </row>
@@ -956,7 +971,7 @@
       </c>
       <c r="I11" s="49">
         <f ca="1">((I5-I7)/_xlfn.DAYS(I9, NOW())) *7</f>
-        <v>9.526315789473685</v>
+        <v>9.1626016260162597</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -2365,7 +2380,7 @@
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="10">
         <v>51</v>
       </c>
@@ -2375,8 +2390,12 @@
       <c r="C112" s="27">
         <v>42723</v>
       </c>
-      <c r="D112" s="35"/>
-      <c r="E112" s="23"/>
+      <c r="D112" s="35">
+        <v>6</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="F112" s="23"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2411,8 +2430,12 @@
       <c r="C115" s="28">
         <v>42726</v>
       </c>
-      <c r="D115" s="17"/>
-      <c r="E115" s="20"/>
+      <c r="D115" s="17">
+        <v>2</v>
+      </c>
+      <c r="E115" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="F115" s="20"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -2423,8 +2446,12 @@
       <c r="C116" s="28">
         <v>42727</v>
       </c>
-      <c r="D116" s="17"/>
-      <c r="E116" s="20"/>
+      <c r="D116" s="17">
+        <v>3</v>
+      </c>
+      <c r="E116" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="F116" s="20"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -2473,8 +2500,12 @@
       <c r="C120" s="28">
         <v>42731</v>
       </c>
-      <c r="D120" s="17"/>
-      <c r="E120" s="20"/>
+      <c r="D120" s="17">
+        <v>5</v>
+      </c>
+      <c r="E120" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="F120" s="20"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -2485,8 +2516,12 @@
       <c r="C121" s="28">
         <v>42732</v>
       </c>
-      <c r="D121" s="17"/>
-      <c r="E121" s="20"/>
+      <c r="D121" s="17">
+        <v>4</v>
+      </c>
+      <c r="E121" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="F121" s="20"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">

--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Larty\gitrepo\ClassicCarChain\Dokumentaatio\"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="43">
   <si>
     <t>Viikko</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Muuttujien kutsu sopimuksesta</t>
+  </si>
+  <si>
+    <t>Ohjelmistoarkkitehtuuri</t>
   </si>
 </sst>
 </file>
@@ -816,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,7 +903,7 @@
       </c>
       <c r="I7" s="46">
         <f>SUM(D:D)</f>
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M7" s="18"/>
     </row>
@@ -971,7 +974,7 @@
       </c>
       <c r="I11" s="49">
         <f ca="1">((I5-I7)/_xlfn.DAYS(I9, NOW())) *7</f>
-        <v>9.1626016260162597</v>
+        <v>9.1355932203389827</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -2532,8 +2535,12 @@
       <c r="C122" s="28">
         <v>42733</v>
       </c>
-      <c r="D122" s="17"/>
-      <c r="E122" s="20"/>
+      <c r="D122" s="17">
+        <v>4</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="F122" s="20"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -2544,8 +2551,12 @@
       <c r="C123" s="28">
         <v>42734</v>
       </c>
-      <c r="D123" s="17"/>
-      <c r="E123" s="5"/>
+      <c r="D123" s="17">
+        <v>3</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="F123" s="5"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">

--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +903,7 @@
       </c>
       <c r="I7" s="46">
         <f>SUM(D:D)</f>
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="M7" s="18"/>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="I11" s="49">
         <f ca="1">((I5-I7)/_xlfn.DAYS(I9, NOW())) *7</f>
-        <v>9.1355932203389827</v>
+        <v>8.89</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -2593,7 +2593,9 @@
       <c r="C126" s="27">
         <v>42737</v>
       </c>
-      <c r="D126" s="35"/>
+      <c r="D126" s="35">
+        <v>8</v>
+      </c>
       <c r="E126" s="23"/>
       <c r="F126" s="23"/>
     </row>
@@ -2641,7 +2643,9 @@
       <c r="C130" s="28">
         <v>42741</v>
       </c>
-      <c r="D130" s="17"/>
+      <c r="D130" s="17">
+        <v>4</v>
+      </c>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
     </row>
@@ -2665,7 +2669,9 @@
       <c r="C132" s="29">
         <v>42743</v>
       </c>
-      <c r="D132" s="17"/>
+      <c r="D132" s="17">
+        <v>4</v>
+      </c>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
     </row>
@@ -2729,7 +2735,9 @@
       <c r="C137" s="28">
         <v>42748</v>
       </c>
-      <c r="D137" s="17"/>
+      <c r="D137" s="17">
+        <v>4</v>
+      </c>
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
     </row>
@@ -2815,7 +2823,9 @@
       <c r="C144" s="28">
         <v>42755</v>
       </c>
-      <c r="D144" s="17"/>
+      <c r="D144" s="17">
+        <v>7</v>
+      </c>
       <c r="E144" s="20"/>
       <c r="F144" s="20"/>
     </row>

--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="45">
   <si>
     <t>Viikko</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Ohjelmistoarkkitehtuuri</t>
+  </si>
+  <si>
+    <t>Grafiikka, käyttöliittymä</t>
+  </si>
+  <si>
+    <t>Onko jäänyt merkkaamatta?</t>
   </si>
 </sst>
 </file>
@@ -819,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +909,7 @@
       </c>
       <c r="I7" s="46">
         <f>SUM(D:D)</f>
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="M7" s="18"/>
     </row>
@@ -974,7 +980,7 @@
       </c>
       <c r="I11" s="49">
         <f ca="1">((I5-I7)/_xlfn.DAYS(I9, NOW())) *7</f>
-        <v>8.89</v>
+        <v>9.5747126436781613</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -2974,7 +2980,9 @@
         <v>42767</v>
       </c>
       <c r="D156" s="17"/>
-      <c r="E156" s="20"/>
+      <c r="E156" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="F156" s="20"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -2985,8 +2993,12 @@
       <c r="C157" s="28">
         <v>42768</v>
       </c>
-      <c r="D157" s="17"/>
-      <c r="E157" s="20"/>
+      <c r="D157" s="17">
+        <v>8</v>
+      </c>
+      <c r="E157" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="F157" s="20"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">

--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H155" sqref="H155"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H219" sqref="H219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +909,7 @@
       </c>
       <c r="I7" s="46">
         <f>SUM(D:D)</f>
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="M7" s="18"/>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="I11" s="49">
         <f ca="1">((I5-I7)/_xlfn.DAYS(I9, NOW())) *7</f>
-        <v>9.5747126436781613</v>
+        <v>9.6582278481012658</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -3095,7 +3095,9 @@
       <c r="C165" s="28">
         <v>42776</v>
       </c>
-      <c r="D165" s="17"/>
+      <c r="D165" s="17">
+        <v>10</v>
+      </c>
       <c r="E165" s="20"/>
       <c r="F165" s="20"/>
     </row>

--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H219" sqref="H219"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +909,7 @@
       </c>
       <c r="I7" s="46">
         <f>SUM(D:D)</f>
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M7" s="18"/>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="I11" s="49">
         <f ca="1">((I5-I7)/_xlfn.DAYS(I9, NOW())) *7</f>
-        <v>9.6582278481012658</v>
+        <v>11.375</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -3281,7 +3281,9 @@
       <c r="C180" s="28">
         <v>42791</v>
       </c>
-      <c r="D180" s="17"/>
+      <c r="D180" s="17">
+        <v>5</v>
+      </c>
       <c r="E180" s="20"/>
       <c r="F180" s="20"/>
     </row>

--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E179" sqref="E179"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E203" sqref="E203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +909,7 @@
       </c>
       <c r="I7" s="46">
         <f>SUM(D:D)</f>
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="M7" s="18"/>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="I11" s="49">
         <f ca="1">((I5-I7)/_xlfn.DAYS(I9, NOW())) *7</f>
-        <v>11.375</v>
+        <v>6.5116279069767442</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -2755,7 +2755,9 @@
       <c r="C138" s="28">
         <v>42749</v>
       </c>
-      <c r="D138" s="17"/>
+      <c r="D138" s="17">
+        <v>1</v>
+      </c>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
     </row>
@@ -2893,7 +2895,9 @@
       <c r="C149" s="28">
         <v>42760</v>
       </c>
-      <c r="D149" s="17"/>
+      <c r="D149" s="17">
+        <v>6</v>
+      </c>
       <c r="E149" s="20"/>
       <c r="F149" s="20"/>
     </row>
@@ -2917,7 +2921,9 @@
       <c r="C151" s="28">
         <v>42762</v>
       </c>
-      <c r="D151" s="17"/>
+      <c r="D151" s="17">
+        <v>2</v>
+      </c>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
     </row>
@@ -3033,7 +3039,9 @@
       <c r="C160" s="29">
         <v>42771</v>
       </c>
-      <c r="D160" s="17"/>
+      <c r="D160" s="17">
+        <v>6</v>
+      </c>
       <c r="E160" s="20"/>
       <c r="F160" s="24"/>
     </row>
@@ -3059,7 +3067,9 @@
       <c r="C162" s="28">
         <v>42773</v>
       </c>
-      <c r="D162" s="17"/>
+      <c r="D162" s="17">
+        <v>4</v>
+      </c>
       <c r="E162" s="20"/>
       <c r="F162" s="20"/>
     </row>
@@ -3109,7 +3119,9 @@
       <c r="C166" s="28">
         <v>42777</v>
       </c>
-      <c r="D166" s="17"/>
+      <c r="D166" s="17">
+        <v>2</v>
+      </c>
       <c r="E166" s="20"/>
       <c r="F166" s="20"/>
     </row>
@@ -3207,7 +3219,9 @@
       <c r="C174" s="29">
         <v>42785</v>
       </c>
-      <c r="D174" s="17"/>
+      <c r="D174" s="17">
+        <v>6</v>
+      </c>
       <c r="E174" s="20"/>
       <c r="F174" s="20"/>
     </row>
@@ -3233,7 +3247,9 @@
       <c r="C176" s="28">
         <v>42787</v>
       </c>
-      <c r="D176" s="17"/>
+      <c r="D176" s="17">
+        <v>7</v>
+      </c>
       <c r="E176" s="20"/>
       <c r="F176" s="20"/>
     </row>
@@ -3282,7 +3298,7 @@
         <v>42791</v>
       </c>
       <c r="D180" s="17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E180" s="20"/>
       <c r="F180" s="20"/>
@@ -3295,7 +3311,9 @@
       <c r="C181" s="29">
         <v>42792</v>
       </c>
-      <c r="D181" s="17"/>
+      <c r="D181" s="17">
+        <v>2</v>
+      </c>
       <c r="E181" s="20"/>
       <c r="F181" s="24"/>
     </row>
@@ -3309,7 +3327,9 @@
       <c r="C182" s="27">
         <v>42793</v>
       </c>
-      <c r="D182" s="35"/>
+      <c r="D182" s="35">
+        <v>5</v>
+      </c>
       <c r="E182" s="23"/>
       <c r="F182" s="23"/>
     </row>
@@ -3321,7 +3341,9 @@
       <c r="C183" s="28">
         <v>42794</v>
       </c>
-      <c r="D183" s="17"/>
+      <c r="D183" s="17">
+        <v>1</v>
+      </c>
       <c r="E183" s="20"/>
       <c r="F183" s="20"/>
     </row>
@@ -3369,7 +3391,9 @@
       <c r="C187" s="28">
         <v>42798</v>
       </c>
-      <c r="D187" s="17"/>
+      <c r="D187" s="17">
+        <v>3</v>
+      </c>
       <c r="E187" s="20"/>
       <c r="F187" s="20"/>
     </row>
@@ -3381,7 +3405,9 @@
       <c r="C188" s="28">
         <v>42799</v>
       </c>
-      <c r="D188" s="17"/>
+      <c r="D188" s="17">
+        <v>7</v>
+      </c>
       <c r="E188" s="24"/>
       <c r="F188" s="20"/>
     </row>
@@ -3531,7 +3557,9 @@
       <c r="C200" s="28">
         <v>42811</v>
       </c>
-      <c r="D200" s="17"/>
+      <c r="D200" s="17">
+        <v>6</v>
+      </c>
       <c r="E200" s="20"/>
       <c r="F200" s="20"/>
     </row>
@@ -3543,7 +3571,9 @@
       <c r="C201" s="28">
         <v>42812</v>
       </c>
-      <c r="D201" s="17"/>
+      <c r="D201" s="17">
+        <v>3</v>
+      </c>
       <c r="E201" s="20"/>
       <c r="F201" s="20"/>
     </row>

--- a/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
+++ b/Dokumentaatio/lm_lohkoketju_seurantalomake.xlsx
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E203" sqref="E203"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L200" sqref="L200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +909,7 @@
       </c>
       <c r="I7" s="46">
         <f>SUM(D:D)</f>
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M7" s="18"/>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="I11" s="49">
         <f ca="1">((I5-I7)/_xlfn.DAYS(I9, NOW())) *7</f>
-        <v>6.5116279069767442</v>
+        <v>5.95</v>
       </c>
       <c r="M11" s="19"/>
     </row>
@@ -3599,7 +3599,9 @@
       <c r="C203" s="27">
         <v>42814</v>
       </c>
-      <c r="D203" s="35"/>
+      <c r="D203" s="35">
+        <v>6</v>
+      </c>
       <c r="E203" s="23"/>
       <c r="F203" s="42"/>
     </row>
